--- a/cmd.xlsx
+++ b/cmd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czc\Desktop\pydemo\KeyMouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FDEC2-2386-4592-9D70-67FFA44666F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D88BC-1847-48FB-ADDB-2B314FBA5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>a.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,25 +35,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑悟空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容（图片名称.png、输入内容、等待时长/秒）</t>
   </si>
   <si>
     <t>重复次数(-1代表一直重复)</t>
   </si>
   <si>
-    <t>f.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮 7 判断）</t>
+    <t>win+d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令类型（1 单击  2 双击  3 右键  4 输入  5 等待  6滚轮 7 判断 8 键盘键入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑神话悟空</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,36 +389,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.109375" customWidth="1"/>
+    <col min="1" max="1" width="68.21875" customWidth="1"/>
     <col min="2" max="2" width="43.21875" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -416,10 +426,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -427,10 +437,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -438,10 +448,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -449,10 +459,46 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cmd.xlsx
+++ b/cmd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czc\Desktop\pydemo\KeyMouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D88BC-1847-48FB-ADDB-2B314FBA5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A724A94-7B86-4C0B-ACFB-53CF74D7576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎使用橙子草的Python自动化脚本~（https://github.com/Chinzicam/KeyMouse）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -403,25 +416,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -429,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -437,10 +446,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -448,10 +457,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -459,10 +468,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -470,10 +479,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -481,10 +490,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -492,17 +501,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>